--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F010EA7-D806-954C-B32D-F9088E7A7EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30817563-6E29-444B-9217-CFF6D6B33333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="580" windowWidth="17640" windowHeight="11380" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,124 @@
   </si>
   <si>
     <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenerateObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenerateCollider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>仅等待</t>
+  </si>
+  <si>
+    <t>播动画
+参数1:动画名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算消耗
+参数1:消耗的属性Key字符串,
+参数2:固定消耗值,
+参数3:消耗的计算公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成碰撞器
+参数1:触发器Id(整数),
+参数2:伤害计算公式Id(整数),
+参数3:最终伤害百分比(0-1小数),
+参数4:最大作用单位数(0表示无限)(整数),
+参数5:"buff1,buff1持续时间单位毫秒,buff1离开范围是否移除buff0或1;buff2,buff2持续时间单位毫秒,buff2离开范围是否移除buff0或1")(字符串，逗号和分号分割),
+参数6:触发器延时生成(整数单位ms,默认1),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成召唤物
+参数1:召唤物Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加特效（临时特效用这个，常驻还是走buff）
+参数1:特效路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己加BUFF
+参数1:buffid,
+参数2时间ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除自己BUFF
+参数1:buffid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变坐标
+参数1:相对坐标字符串"x,y,z"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放声音
+参数1:音频路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;para&gt;改变Group&lt;/para&gt;&gt;
+&lt;para&gt;(1个参数.参数1:Group)&lt;/para&gt;&gt;
+&lt;para&gt;(2个参数.参数1:Condition 参数2:满足条件Group)&lt;/para&gt;&gt;
+&lt;para&gt;(3个参数.参数1:Condition 参数2:满足条件Group 参数3:不满足条件Group)&lt;/para&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStepType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +244,28 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF629755"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -165,24 +305,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,23 +773,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -536,13 +811,13 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -569,34 +844,267 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1">
+    <row r="3" spans="1:11" ht="99" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5">
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="33">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="33">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="33">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="66">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="33">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="148.5">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>6</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="33">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>7</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="49.5">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>8</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="33">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>9</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="83.25" thickBot="1">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
+        <v>10</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30817563-6E29-444B-9217-CFF6D6B33333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B374B91-8F2A-4F61-87E1-31993AD80D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B374B91-8F2A-4F61-87E1-31993AD80D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC1D33-4381-4191-AEBB-9F2DD11FF776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,12 +224,109 @@
     <t>SkillStepType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ColliderType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定位置碰撞体</t>
+  </si>
+  <si>
+    <t>固定方向碰撞体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝指定位置方向飞行碰撞体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定目标飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF629755"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF629755"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矩形</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF629755"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球形</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderShape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +364,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF629755"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -282,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -369,12 +474,61 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF00B050"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF00B050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,18 +537,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF00B050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF00B050"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF00B050"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,60 +558,93 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -811,13 +998,13 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -848,263 +1035,388 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>-1</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="33">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="33">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="33">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="66">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="33">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="148.5">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
         <v>6</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="33">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <v>7</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="49.5">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <v>8</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="33">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
         <v>9</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="83.25" thickBot="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
         <v>10</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="4"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5">
+      <c r="B16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16.5">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="13">
+        <v>2</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.5">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="13">
+        <v>3</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24">
+        <v>4</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="16.5">
+      <c r="B21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16.5">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24">
+        <v>2</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC1D33-4381-4191-AEBB-9F2DD11FF776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663F1D9B-DAE7-401E-A757-062078DAD544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,69 @@
   </si>
   <si>
     <t>ColliderShape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MousePos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF629755"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自身</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF629755"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF629755"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼠标位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartPosType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1418,6 +1481,59 @@
         <v>60</v>
       </c>
     </row>
+    <row r="24" spans="2:10" ht="16.5">
+      <c r="B24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="16.5">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="13">
+        <v>2</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24">
+        <v>3</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
